--- a/Output/Results_Oxidative_Stress/Oxidative_stress_cld.xlsx
+++ b/Output/Results_Oxidative_Stress/Oxidative_stress_cld.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ab</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>bc</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ab</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>bd</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>acd</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ad</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cd</t>
+          <t>ac</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>bce</t>
+          <t>ab</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>bc</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>bd</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>bd</t>
+          <t>ab</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>bd</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>bd</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>bc</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>bc</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ac</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>cd</t>
         </is>
       </c>
     </row>
